--- a/downloads/KB-Liste Red Holstein.xlsx
+++ b/downloads/KB-Liste Red Holstein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F38FE26-03B5-4B03-A754-858C6F75338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247BB92-FA2E-4AA1-9A09-5C52C2FADE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{753348B5-95AC-4BE2-93B4-742E884FAC32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{753348B5-95AC-4BE2-93B4-742E884FAC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>Red Holstein et al. SVKB</t>
   </si>
@@ -443,13 +443,60 @@
     <t>* = CDH-Träger, nicht an CDH-Trägerin! Trägerin in Besamerkarte markiert</t>
   </si>
   <si>
-    <t>Inhalt, Euter, Nutzungsdau</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +1627, Inhalt, Nutzungsdauer</t>
-  </si>
-  <si>
-    <t>Sunboy-ET</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sunboy-ET</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inhalt, Euter, Nutzungsdau </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nicht 004/005)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> +1627, Inhalt, Nutzungsdau </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nicht 011/012)</t>
+    </r>
+  </si>
+  <si>
+    <t>X-SUV PP</t>
+  </si>
+  <si>
+    <t>67 o</t>
+  </si>
+  <si>
+    <t>Roboter, Geburt, ZZ, Fruchtbar, Exterieur</t>
   </si>
 </sst>
 </file>
@@ -622,7 +669,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -709,7 +756,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1026,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB452BD-4C3A-43F3-BEE9-72D3A9834308}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1095,7 @@
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="1">
-        <v>44382</v>
+        <v>44407</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
@@ -1631,8 +1677,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>123</v>
+      <c r="A32" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>8</v>
@@ -1748,9 +1794,7 @@
       <c r="C38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="D38" s="12"/>
       <c r="E38" s="2" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +1816,7 @@
         <v>101</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39" s="31">
         <v>108</v>
@@ -1812,7 +1856,7 @@
         <v>101</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F41" s="31">
         <v>89</v>
@@ -1900,46 +1944,66 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="33" t="s">
+      <c r="B47" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D47" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F47" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-    </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/downloads/KB-Liste Red Holstein.xlsx
+++ b/downloads/KB-Liste Red Holstein.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A2F49B-C60D-4A74-ABB7-FD1B404B3326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC8B6D-CB25-4028-BC79-EDA3A9EC5E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{753348B5-95AC-4BE2-93B4-742E884FAC32}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Red Holstein et al. SVKB</t>
   </si>
@@ -96,8 +96,137 @@
     <t>Euter, Inhalt, +1147kg, Nutzungsdauer</t>
   </si>
   <si>
+    <t>Roboter, Milch, Eiweiss, Euter, Gliedm.</t>
+  </si>
+  <si>
+    <t>Arland SG-ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1627, Inhaltsstoffe, Nutzungsdauer</t>
+  </si>
+  <si>
+    <t>Frisco</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Roboter, Inhalt, ZZ, Geburt</t>
+  </si>
+  <si>
+    <t>SF Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leno </t>
+  </si>
+  <si>
+    <t>Milch, Fundament, Euter</t>
+  </si>
+  <si>
+    <t>Lorbas P</t>
+  </si>
+  <si>
+    <t>Roboter, Milch, Euter, A2/A2</t>
+  </si>
+  <si>
+    <t>Power-ET</t>
+  </si>
+  <si>
+    <t>Roboter, Milch, Exterieur, IFF</t>
+  </si>
+  <si>
+    <t>S-Frisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH </t>
+  </si>
+  <si>
+    <t>Vinway-ET</t>
+  </si>
+  <si>
+    <t>Roboter, Inhalt, ZZ, fruchtbar, Geburt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Airolo-ET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Amaro P </t>
+  </si>
+  <si>
+    <t>50% Hornlos, Milch, Euter, Roboter</t>
+  </si>
+  <si>
+    <t>X-Amnesty-ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Andero SG-ET </t>
+  </si>
+  <si>
+    <t>X-Ardez-ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Arland SG-ET </t>
+  </si>
+  <si>
+    <t>X-Leno</t>
+  </si>
+  <si>
+    <t>X-Lorbas P</t>
+  </si>
+  <si>
+    <t>X-Swingman-ET</t>
+  </si>
+  <si>
+    <t>Milch, Fitness, Roboter, Zellzahl</t>
+  </si>
+  <si>
+    <t>* = CDH-Träger, nicht an CDH-Trägerin! Trägerin in Besamerkarte markiert</t>
+  </si>
+  <si>
+    <t>X-SUV PP</t>
+  </si>
+  <si>
+    <t>Roboter, Geburt, ZZ, Fruchtbar, Exterieur</t>
+  </si>
+  <si>
+    <t>Baltimor</t>
+  </si>
+  <si>
+    <t>Roboter, ZZ, Nutzungsdauer, Geburt, NRR</t>
+  </si>
+  <si>
+    <t>Flips</t>
+  </si>
+  <si>
+    <t>Inhalt, Exterieur, fruchtbar, Geburt, ZZ</t>
+  </si>
+  <si>
+    <t>Kalyano</t>
+  </si>
+  <si>
+    <t>Roboter, Milch, Eiweiss, Eyterieur</t>
+  </si>
+  <si>
+    <t>Navy-ET</t>
+  </si>
+  <si>
+    <t>Inhalt, ZZ, Geburt, Euter, eher kleiner</t>
+  </si>
+  <si>
+    <t>Reduro</t>
+  </si>
+  <si>
+    <t>Roboter, Euter, Exterieur, ZZ, Geburt</t>
+  </si>
+  <si>
+    <t>S-Amaro</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Ario SG-ET </t>
+      <t xml:space="preserve">Achance-ET </t>
     </r>
     <r>
       <rPr>
@@ -110,17 +239,17 @@
     </r>
   </si>
   <si>
-    <t>Roboter, Milch, Eiweiss, Euter, Gliedm.</t>
-  </si>
-  <si>
-    <t>Arland SG-ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +1627, Inhaltsstoffe, Nutzungsdauer</t>
+    <t>Roboter, Inhalt, +1215kg, ZZ, Exterieur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Ario SG-ET</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Cocker </t>
+      <t xml:space="preserve">Bormio </t>
     </r>
     <r>
       <rPr>
@@ -133,23 +262,28 @@
     </r>
   </si>
   <si>
-    <t>Roboter, Inhalt, Euter, Zellzahl</t>
-  </si>
-  <si>
-    <t>Frisco</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>Roboter, Inhalt, ZZ, Geburt</t>
-  </si>
-  <si>
-    <t>SF Op</t>
+    <t>Euter, Inhalt, Fruchtbarkeit, Nutzungsdauer</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Koweit </t>
+      <t>Primenov</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Roboter, ZZ, Nutzungsdauer, Geburt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rebell </t>
     </r>
     <r>
       <rPr>
@@ -162,121 +296,39 @@
     </r>
   </si>
   <si>
-    <t>Roboter, BB, ZZ, Exterieur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leno </t>
-  </si>
-  <si>
-    <t>Milch, Fundament, Euter</t>
-  </si>
-  <si>
-    <t>Lorbas P</t>
-  </si>
-  <si>
-    <t>Roboter, Milch, Euter, A2/A2</t>
-  </si>
-  <si>
-    <t>Power-ET</t>
-  </si>
-  <si>
-    <t>Roboter, Milch, Exterieur, IFF</t>
-  </si>
-  <si>
-    <t>S-Frisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH </t>
-  </si>
-  <si>
-    <t>Vinway-ET</t>
-  </si>
-  <si>
-    <t>Roboter, Inhalt, ZZ, fruchtbar, Geburt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Airolo-ET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Amaro P </t>
-  </si>
-  <si>
-    <t>50% Hornlos, Milch, Euter, Roboter</t>
-  </si>
-  <si>
-    <t>X-Amnesty-ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Andero SG-ET </t>
-  </si>
-  <si>
-    <t>X-Ardez-ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Arland SG-ET </t>
-  </si>
-  <si>
-    <t>X-Leno</t>
-  </si>
-  <si>
-    <t>X-Lorbas P</t>
-  </si>
-  <si>
-    <t>X-Swingman-ET</t>
-  </si>
-  <si>
-    <t>Milch, Fitness, Roboter, Zellzahl</t>
-  </si>
-  <si>
-    <t>* = CDH-Träger, nicht an CDH-Trägerin! Trägerin in Besamerkarte markiert</t>
-  </si>
-  <si>
-    <t>X-SUV PP</t>
-  </si>
-  <si>
-    <t>Roboter, Geburt, ZZ, Fruchtbar, Exterieur</t>
-  </si>
-  <si>
-    <t>Baltimor</t>
-  </si>
-  <si>
-    <t>Roboter, ZZ, Nutzungsdauer, Geburt, NRR</t>
-  </si>
-  <si>
-    <t>Flips</t>
-  </si>
-  <si>
-    <t>Inhalt, Exterieur, fruchtbar, Geburt, ZZ</t>
-  </si>
-  <si>
-    <t>Kalyano</t>
-  </si>
-  <si>
-    <t>Roboter, Milch, Eiweiss, Eyterieur</t>
-  </si>
-  <si>
-    <t>Navy-ET</t>
-  </si>
-  <si>
-    <t>Inhalt, ZZ, Geburt, Euter, eher kleiner</t>
-  </si>
-  <si>
-    <t>Reduro</t>
-  </si>
-  <si>
-    <t>Roboter, Euter, Exterieur, ZZ, Geburt</t>
-  </si>
-  <si>
-    <t>S-Amaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhalt, Euter, Nutzungsdau </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +1627, Inhalt, Nutzungsdau </t>
+    <t>Roboter, BB, Exterieur</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solar-ET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>Inhalt, +1706kg, ZZ, fruchtbar, Geburt</t>
+  </si>
+  <si>
+    <t>Inhalt, Euter, Nutzungsdau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1627, Inhalt, Nutzungsdauer</t>
+  </si>
+  <si>
+    <t>X-Doral</t>
+  </si>
+  <si>
+    <t>BB, +2'002 kg, Exterieur,Nutzungsdauer</t>
+  </si>
+  <si>
+    <t>X-Power-ET</t>
   </si>
 </sst>
 </file>
@@ -465,9 +517,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -482,9 +531,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -801,35 +853,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB452BD-4C3A-43F3-BEE9-72D3A9834308}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="25">
-        <v>44434</v>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20">
+        <v>44519</v>
       </c>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -852,208 +904,206 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="19">
-        <v>97</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="19">
-        <v>106</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="16">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D8" s="16">
         <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="6">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="7">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="13">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6">
         <v>89</v>
@@ -1061,13 +1111,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6">
         <v>113</v>
@@ -1075,13 +1125,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6">
         <v>93</v>
@@ -1089,13 +1139,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6">
         <v>97</v>
@@ -1103,224 +1153,288 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="6">
         <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="19">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="13">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="7">
-        <v>114</v>
+        <v>12</v>
+      </c>
+      <c r="D26" s="16">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="13">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="20">
-        <v>97</v>
+        <v>74</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="20">
-        <v>110</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="7">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="7">
-        <v>107</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>6</v>
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="11">
-        <v>108</v>
+        <v>7</v>
+      </c>
+      <c r="D31" s="17">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="6">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="D42" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="11">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="11">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/downloads/KB-Liste Red Holstein.xlsx
+++ b/downloads/KB-Liste Red Holstein.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC8B6D-CB25-4028-BC79-EDA3A9EC5E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783F6B9-0D95-4D17-874D-73DE4B9931A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{753348B5-95AC-4BE2-93B4-742E884FAC32}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Red Holstein et al. SVKB</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Euter, Inhalt, +1147kg, Nutzungsdauer</t>
-  </si>
-  <si>
-    <t>Roboter, Milch, Eiweiss, Euter, Gliedm.</t>
   </si>
   <si>
     <t>Arland SG-ET</t>
@@ -245,23 +242,6 @@
     <t xml:space="preserve"> - </t>
   </si>
   <si>
-    <t>Ario SG-ET</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bormio </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>Euter, Inhalt, Fruchtbarkeit, Nutzungsdauer</t>
   </si>
   <si>
@@ -282,20 +262,6 @@
     <t>Roboter, ZZ, Nutzungsdauer, Geburt</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Rebell </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>Roboter, BB, Exterieur</t>
   </si>
   <si>
@@ -329,6 +295,81 @@
   </si>
   <si>
     <t>X-Power-ET</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajaxyo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>Roboter, +1181kg, Euter, Geburt, fruchtbar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arcobello-ET P </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>Euter, Exterieur, fruchtbar, ZZ</t>
+  </si>
+  <si>
+    <t>Bertaggia-ET</t>
+  </si>
+  <si>
+    <t>Euter, Inhalt, Exterieur, fruchtbar, Geburt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bormio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebell </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Suits-ET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>Roboter, Inahlt, ZZ, Geburt, Euter</t>
+  </si>
+  <si>
+    <t>X-Arcobello-ET</t>
+  </si>
+  <si>
+    <t>RH (Prüf)</t>
+  </si>
+  <si>
+    <t>X-Denis SG-ET</t>
+  </si>
+  <si>
+    <t>Roboter, Inhalt, ZZ, Geburt, fruchtbar, Euter</t>
   </si>
 </sst>
 </file>
@@ -853,18 +894,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB452BD-4C3A-43F3-BEE9-72D3A9834308}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -873,7 +914,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="20">
-        <v>44519</v>
+        <v>44561</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -905,536 +946,612 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="16">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="6">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7">
+        <v>81</v>
+      </c>
+      <c r="D16" s="6">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13">
-        <v>106</v>
+      <c r="A17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6">
-        <v>113</v>
+      <c r="D20" s="7">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D21" s="6">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="6">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D23" s="6">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="6">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="6">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="16">
-        <v>110</v>
+        <v>68</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="13">
-        <v>106</v>
+      <c r="A27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="16">
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="7">
-        <v>114</v>
+      <c r="A29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="13">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="17">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="17">
-        <v>110</v>
+        <v>36</v>
+      </c>
+      <c r="D32" s="7">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="7">
-        <v>107</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>6</v>
+      <c r="A34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="11">
-        <v>108</v>
+        <v>7</v>
+      </c>
+      <c r="D34" s="17">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="6">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="D35" s="17">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="11">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="D36" s="7">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="D37" s="11">
+        <v>108</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="B44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="11">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="B47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D47" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/downloads/KB-Liste Red Holstein.xlsx
+++ b/downloads/KB-Liste Red Holstein.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783F6B9-0D95-4D17-874D-73DE4B9931A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8BDA1B-A97F-4F82-BC40-4B32D38074CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{753348B5-95AC-4BE2-93B4-742E884FAC32}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Red Holstein et al. SVKB</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Inhaltsstoffe, Euter, Nutzungsdauer</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Ardez-ET</t>
   </si>
   <si>
@@ -174,12 +171,6 @@
     <t>X-Lorbas P</t>
   </si>
   <si>
-    <t>X-Swingman-ET</t>
-  </si>
-  <si>
-    <t>Milch, Fitness, Roboter, Zellzahl</t>
-  </si>
-  <si>
     <t>* = CDH-Träger, nicht an CDH-Trägerin! Trägerin in Besamerkarte markiert</t>
   </si>
   <si>
@@ -222,27 +213,7 @@
     <t>S-Amaro</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Achance-ET </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
-    <t>Roboter, Inhalt, +1215kg, ZZ, Exterieur</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t>Euter, Inhalt, Fruchtbarkeit, Nutzungsdauer</t>
   </si>
   <si>
     <r>
@@ -262,26 +233,6 @@
     <t>Roboter, ZZ, Nutzungsdauer, Geburt</t>
   </si>
   <si>
-    <t>Roboter, BB, Exterieur</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Solar-ET </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
-    <t>Inhalt, +1706kg, ZZ, fruchtbar, Geburt</t>
-  </si>
-  <si>
     <t>Inhalt, Euter, Nutzungsdau</t>
   </si>
   <si>
@@ -337,12 +288,6 @@
     <t>Euter, Inhalt, Exterieur, fruchtbar, Geburt</t>
   </si>
   <si>
-    <t xml:space="preserve">Bormio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebell </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Suits-ET </t>
     </r>
@@ -360,9 +305,6 @@
     <t>Roboter, Inahlt, ZZ, Geburt, Euter</t>
   </si>
   <si>
-    <t>X-Arcobello-ET</t>
-  </si>
-  <si>
     <t>RH (Prüf)</t>
   </si>
   <si>
@@ -370,13 +312,28 @@
   </si>
   <si>
     <t>Roboter, Inhalt, ZZ, Geburt, fruchtbar, Euter</t>
+  </si>
+  <si>
+    <r>
+      <t>X-Arcobello-ET</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Prüf)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +398,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -894,18 +858,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB452BD-4C3A-43F3-BEE9-72D3A9834308}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,7 +878,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="20">
-        <v>44561</v>
+        <v>44575</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -946,612 +910,542 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="16">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="16">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="16">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="16">
-        <v>110</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7">
-        <v>107</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6">
-        <v>108</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="6">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D15" s="6">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="6">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>26</v>
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" s="7">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="13">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="7">
-        <v>104</v>
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D21" s="6">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D22" s="6">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="6">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D24" s="6">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="16">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>26</v>
+      <c r="A26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="13">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="6">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="16">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="D28" s="7">
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="13">
-        <v>106</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="D30" s="17">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="D31" s="17">
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D32" s="7">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="11">
+        <v>108</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>9</v>
+      <c r="A34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="17">
-        <v>97</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="17">
-        <v>110</v>
+        <v>18</v>
+      </c>
+      <c r="D35" s="6">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="7">
-        <v>107</v>
+        <v>63</v>
+      </c>
+      <c r="D36" s="11">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="11">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D39" s="6">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>72</v>
+      <c r="A40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D40" s="11">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>6</v>
+      <c r="A41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D41" s="6">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="6">
-        <v>89</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="11">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/downloads/KB-Liste Red Holstein.xlsx
+++ b/downloads/KB-Liste Red Holstein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stiere\Pdf Homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C7DD5C-46E7-4582-8574-27E84A37600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19CDCAA-1143-415F-A1A3-1BF6FB2F863C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9E9274F2-A689-43E5-ADB9-C5BB4DD9F344}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F9A7058-5485-479D-A672-8C3A3EEA9838}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>Red Holstein et al. SVKB</t>
   </si>
@@ -113,6 +113,21 @@
     <t>Roboter, ZZ, Nutzungsdauer, Geburt, NRR</t>
   </si>
   <si>
+    <t>Brandy P</t>
+  </si>
+  <si>
+    <t>RH OP</t>
+  </si>
+  <si>
+    <t>Roboter, Euterges, Exterieur, Hellender</t>
+  </si>
+  <si>
+    <t>Benalti-ET (Prüf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehalt, hoher BCS, </t>
+  </si>
+  <si>
     <t>Brenaco-ET</t>
   </si>
   <si>
@@ -152,6 +167,12 @@
     <t>Roboter, Milch, Eiweiss, Eyterieur</t>
   </si>
   <si>
+    <t>Lemieux (Prüf)</t>
+  </si>
+  <si>
+    <t>Roboter, Gehalt, Exterieur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leno </t>
   </si>
   <si>
@@ -239,6 +260,9 @@
     <t>Euter, Inhalt, +975 kg, Nutzungsdauer</t>
   </si>
   <si>
+    <t>X-Brandy P (Prüf)</t>
+  </si>
+  <si>
     <t>X-Bronce-ET</t>
   </si>
   <si>
@@ -264,6 +288,9 @@
   </si>
   <si>
     <t>X-Red Rock-ET PP (Prüf)</t>
+  </si>
+  <si>
+    <t>Roboter, BB, Gehalt, Milch 301 kg</t>
   </si>
   <si>
     <t>X-SUV PP</t>
@@ -285,10 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,11 +335,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -394,6 +413,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -491,60 +511,62 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -554,8 +576,8 @@
   <cellStyles count="4">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{B559936F-A23D-4C3A-98C5-2BB57AFCFC8C}"/>
-    <cellStyle name="Standard 3" xfId="3" xr:uid="{3C19F34B-872B-47AD-976B-57B60A3431E9}"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{66DADA34-AF51-42C3-B202-D4855202EADE}"/>
+    <cellStyle name="Standard 3" xfId="3" xr:uid="{E72E2664-161C-4CE0-992B-C4D17485E294}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,35 +888,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CBB631-36BE-4E34-9BE6-313EA4899633}">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4A5A3F-57F0-445E-9E08-E74CA543EF9F}">
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="27">
-        <v>44981</v>
-      </c>
-      <c r="D1" s="28"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="26">
+        <v>45051</v>
+      </c>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="29"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -906,7 +928,7 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -914,7 +936,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -926,7 +948,7 @@
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -940,7 +962,7 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>97</v>
       </c>
     </row>
@@ -951,10 +973,10 @@
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>99</v>
       </c>
     </row>
@@ -962,13 +984,13 @@
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>107</v>
       </c>
     </row>
@@ -976,13 +998,13 @@
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>104</v>
       </c>
     </row>
@@ -990,13 +1012,13 @@
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>102</v>
       </c>
     </row>
@@ -1010,16 +1032,16 @@
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="34">
@@ -1027,113 +1049,109 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="34">
-        <v>84</v>
-      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="34">
-        <v>84</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="33">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="35">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="23" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="32">
         <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="34">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="34">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,338 +1159,395 @@
         <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="34">
-        <v>98</v>
+      <c r="D22" s="33">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="34">
-        <v>107</v>
+      <c r="C23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="33">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="33">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="33">
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="32">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="23" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="C31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="31">
+      <c r="C32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="30">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="34"/>
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="34"/>
+      <c r="A38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>42</v>
+      <c r="A39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="34"/>
+        <v>76</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="34"/>
+      <c r="A41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>78</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="23" t="s">
+      <c r="A43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="29"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="32"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{4AACE2CB-E65E-4AEE-9820-1E1E870C8D61}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{C58F5AE8-416F-4DD8-9A01-33BFD2EAAEBE}"/>
-    <hyperlink ref="A30" r:id="rId3" xr:uid="{A996E2CE-CE2C-4691-A097-C67818FBEA63}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{196D5CE8-747B-4DFA-9859-81DE5F6ABC46}"/>
-    <hyperlink ref="A31" r:id="rId5" xr:uid="{DF939D24-7633-4FDC-B506-CA26A3949E6C}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{953DD434-9009-432F-9A59-56C5368441F9}"/>
-    <hyperlink ref="A32" r:id="rId7" xr:uid="{4D7204AC-DF69-4125-B805-5D55A687B6C5}"/>
-    <hyperlink ref="A33" r:id="rId8" xr:uid="{BF2EBCD2-1C99-4D4F-8D39-4BD182D5082B}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{E64504E1-7DC2-4BE7-AC27-542EDC901D33}"/>
-    <hyperlink ref="A34" r:id="rId10" xr:uid="{C49BF94F-79E6-4007-8C63-E3F60CF5C10C}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{FFD5E98A-5510-4FEE-9CBB-12CFCCD95FB5}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{877238DA-C5D5-4B9C-B310-5A85FF24E7EE}"/>
-    <hyperlink ref="A35" r:id="rId13" xr:uid="{9B18C953-4EBA-4F12-89D7-0CBA43A85403}"/>
-    <hyperlink ref="A36" r:id="rId14" xr:uid="{EFDBBA69-985A-4ECD-B3DD-9955D73C8606}"/>
-    <hyperlink ref="A18" r:id="rId15" xr:uid="{B7C3094D-F6FA-4B6D-A233-6588F1415758}"/>
-    <hyperlink ref="A19" r:id="rId16" xr:uid="{B7ED569B-7B9B-4BD4-B6A3-1ED9C2668A4D}"/>
-    <hyperlink ref="A38" r:id="rId17" xr:uid="{06C1D1A9-EB9E-4FCE-AF97-E92A90F8A1C0}"/>
-    <hyperlink ref="A22" r:id="rId18" xr:uid="{CCB96554-E4FC-402C-84EE-4981160E057D}"/>
-    <hyperlink ref="A40" r:id="rId19" xr:uid="{0DFF32B7-42F8-42EE-BDF4-DF1D045A70BB}"/>
-    <hyperlink ref="A23" r:id="rId20" xr:uid="{1F23B348-0C4E-434A-B675-F1E9CF4186A5}"/>
-    <hyperlink ref="A25" r:id="rId21" xr:uid="{CD0E698A-1805-43AC-AD87-6123001B8DD6}"/>
-    <hyperlink ref="A42" r:id="rId22" xr:uid="{CFCC21D2-18B7-41B0-83D4-099FC5C756D0}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{3FFF98D7-D806-4819-A895-3DC798864C92}"/>
-    <hyperlink ref="A43" r:id="rId24" display="Tower-ET" xr:uid="{064B25DE-A5CE-49B6-894F-9CE4102717FC}"/>
-    <hyperlink ref="A37" r:id="rId25" xr:uid="{94DA89CB-70E2-49A6-AC72-25DF78D95360}"/>
-    <hyperlink ref="A39" r:id="rId26" xr:uid="{FA4F145B-57BF-4E54-ACED-0BFE41EF8F18}"/>
-    <hyperlink ref="A20" r:id="rId27" xr:uid="{3CE1E356-17CD-4FC9-9889-00E1A8235C81}"/>
-    <hyperlink ref="A16" r:id="rId28" xr:uid="{68AE5BF3-1F93-44F1-A865-A6A0782CEDBC}"/>
-    <hyperlink ref="A5" r:id="rId29" xr:uid="{DF46D728-AFBA-40E5-B5B5-84A3F2A2E549}"/>
-    <hyperlink ref="A41" r:id="rId30" display="x-Red Rock-ET PP" xr:uid="{A564273E-649C-4B39-A968-DF593FD01197}"/>
-    <hyperlink ref="A24" r:id="rId31" display="Red Rock-ET PP" xr:uid="{AAB4E167-D16F-4A72-8CD4-C21685542762}"/>
-    <hyperlink ref="A11" r:id="rId32" xr:uid="{5200465D-95D9-4047-BAB6-A71357108D54}"/>
-    <hyperlink ref="A21" r:id="rId33" display="Odlo-ET" xr:uid="{31992F48-C5F3-43EC-A55A-5A228EB4F151}"/>
-    <hyperlink ref="A6" r:id="rId34" xr:uid="{21E843C6-8001-4652-9CF4-680FAEE7E472}"/>
-    <hyperlink ref="A29" r:id="rId35" xr:uid="{446F8435-6AC1-4996-A1F9-3B467E7CCE61}"/>
-    <hyperlink ref="A17" r:id="rId36" xr:uid="{41203137-9CEE-4EB1-B45B-A6DD107449EC}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{839D0CFD-ED7A-4CC4-8523-FFF74EF60564}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{31E97AF4-9B23-4558-B60F-8B3BDC7956D2}"/>
+    <hyperlink ref="A33" r:id="rId3" xr:uid="{59B136FF-A3EB-4C9D-AE56-DA8860F15F52}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{A9E1CFF8-6A2A-4203-A2E4-8AC58A6CC783}"/>
+    <hyperlink ref="A34" r:id="rId5" xr:uid="{7CE7AAE1-709A-4A24-9BF2-7DEF90D6316B}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{011AB3CF-C345-439C-8B7F-F6D81B189B85}"/>
+    <hyperlink ref="A35" r:id="rId7" xr:uid="{87312AD0-3467-412F-A833-48A509F44FE9}"/>
+    <hyperlink ref="A36" r:id="rId8" xr:uid="{D32594D7-3623-4ED2-9F14-F5D543FE6CAC}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{ED5561EC-F401-4CA8-8EB6-FCE6251BB278}"/>
+    <hyperlink ref="A37" r:id="rId10" xr:uid="{78133F6F-B111-4C82-9569-95905CB6F57C}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{82EF3FF8-22EB-4183-BC96-940B2367756E}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{53B68B48-7D09-419A-94E4-D0EC12802E2B}"/>
+    <hyperlink ref="A39" r:id="rId13" xr:uid="{737134FD-F4A3-41A3-8245-F09BC86D17FE}"/>
+    <hyperlink ref="A40" r:id="rId14" xr:uid="{0EE47003-C165-44D5-A11B-BC10E730D796}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{C26612ED-7269-45AB-AD04-0688AA893EA8}"/>
+    <hyperlink ref="A22" r:id="rId16" xr:uid="{9C0064BD-5582-465B-A2A6-689EFDE848AD}"/>
+    <hyperlink ref="A42" r:id="rId17" xr:uid="{8B791A5D-2E6A-4BAA-B1EC-6F7CD771227F}"/>
+    <hyperlink ref="A25" r:id="rId18" xr:uid="{8CC7AA69-41F5-4120-A96C-93CC42438E22}"/>
+    <hyperlink ref="A44" r:id="rId19" xr:uid="{2619BA70-C950-48FE-8BB5-F185E23F0075}"/>
+    <hyperlink ref="A26" r:id="rId20" xr:uid="{601B20C3-599D-421D-B600-FA513C48B8D7}"/>
+    <hyperlink ref="A28" r:id="rId21" xr:uid="{138B8D0F-6FDA-4930-98A1-00B0A160C9A0}"/>
+    <hyperlink ref="A46" r:id="rId22" xr:uid="{67501EEB-47B6-4E93-80DC-79CE56ACE02B}"/>
+    <hyperlink ref="A29" r:id="rId23" xr:uid="{297CD7D5-3E48-410B-87E0-27567C02EDFC}"/>
+    <hyperlink ref="A47" r:id="rId24" display="Tower-ET" xr:uid="{188A4EF0-24AF-4E87-9DEC-B9809C565EF5}"/>
+    <hyperlink ref="A41" r:id="rId25" xr:uid="{E0A60CA4-A93D-4EFB-85D0-ABC6B18A05AE}"/>
+    <hyperlink ref="A43" r:id="rId26" xr:uid="{1719CBCE-0A6E-4A7F-ABA8-5ECA4D5278F6}"/>
+    <hyperlink ref="A23" r:id="rId27" xr:uid="{EB504610-1717-467D-80E1-EB59D89E2B4D}"/>
+    <hyperlink ref="A18" r:id="rId28" xr:uid="{FDF4F090-7093-4861-9774-1B4C546E303F}"/>
+    <hyperlink ref="A5" r:id="rId29" xr:uid="{23F8EF53-A5D7-44F9-9795-5549E6ED9566}"/>
+    <hyperlink ref="A45" r:id="rId30" display="x-Red Rock-ET PP" xr:uid="{80CF3A93-10E9-4AB2-BDB8-29C6F48AF033}"/>
+    <hyperlink ref="A27" r:id="rId31" display="Red Rock-ET PP" xr:uid="{C95D5701-809B-4BBB-85CC-B2203DE7CF53}"/>
+    <hyperlink ref="A11" r:id="rId32" xr:uid="{28929C98-117F-4131-80AE-819D6F8ECB84}"/>
+    <hyperlink ref="A24" r:id="rId33" display="Odlo-ET" xr:uid="{FDF9A564-FE28-4257-A196-76D74A74351F}"/>
+    <hyperlink ref="A6" r:id="rId34" xr:uid="{8205F7B5-D819-4E81-86EC-38DBC3C7EC47}"/>
+    <hyperlink ref="A32" r:id="rId35" xr:uid="{6C077521-2EC2-41BE-9F3E-AA000CF2860A}"/>
+    <hyperlink ref="A19" r:id="rId36" xr:uid="{CFE01115-F0FF-46B7-9D9B-5C9C1A52758B}"/>
+    <hyperlink ref="A13" r:id="rId37" xr:uid="{3B854736-FFE2-4677-8DB8-2ACE5EC0BFCB}"/>
+    <hyperlink ref="A38" r:id="rId38" display="X-Brandy P" xr:uid="{43F8683D-5566-4E95-B707-805414F097CF}"/>
+    <hyperlink ref="A14" r:id="rId39" xr:uid="{F8BFA33C-23EE-4162-9729-967C9F938217}"/>
+    <hyperlink ref="A21" r:id="rId40" xr:uid="{C8246F2E-0C48-441E-8992-78DBA80A048E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>